--- a/NetworkModel-R/data/Specialization_RawData.xlsx
+++ b/NetworkModel-R/data/Specialization_RawData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24620" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24860" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>colonyID</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>Specialization</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -426,8 +426,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -472,7 +476,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -491,6 +495,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -509,6 +515,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -840,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -852,114 +860,114 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -972,7 +980,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -985,7 +993,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -998,7 +1006,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1011,7 +1019,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1024,7 +1032,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -1037,7 +1045,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <v>12</v>
@@ -1050,7 +1058,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -1063,7 +1071,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -1076,7 +1084,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -1089,7 +1097,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -1102,7 +1110,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -1115,7 +1123,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22">
         <v>16</v>
@@ -1128,7 +1136,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -1141,7 +1149,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -1154,7 +1162,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -1167,7 +1175,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1180,7 +1188,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1193,7 +1201,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1206,7 +1214,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1219,7 +1227,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1232,7 +1240,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1245,7 +1253,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1258,7 +1266,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1271,7 +1279,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1284,7 +1292,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1297,7 +1305,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -1310,7 +1318,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -1323,7 +1331,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1336,7 +1344,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1349,7 +1357,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -1362,7 +1370,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -1375,7 +1383,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -1388,7 +1396,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1401,7 +1409,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -1414,7 +1422,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1427,7 +1435,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1440,7 +1448,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -1453,7 +1461,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -1466,7 +1474,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1479,7 +1487,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -1492,7 +1500,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -1505,7 +1513,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -1518,7 +1526,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -1531,7 +1539,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -1544,7 +1552,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -1557,7 +1565,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -1570,7 +1578,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -1583,111 +1591,111 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>0</v>
+      <c r="C58" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F58" s="4"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>0</v>
+      <c r="C59" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F59" s="4"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>0</v>
+      <c r="C60" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F60" s="4"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>0</v>
+      <c r="C61" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F61" s="4"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>0</v>
+      <c r="C62" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F62" s="4"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>0</v>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F63" s="4"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>0</v>
+      <c r="C64" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F64" s="4"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>0</v>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F65" s="4"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66">
         <v>12</v>
@@ -1700,7 +1708,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -1713,7 +1721,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68">
         <v>12</v>
@@ -1726,7 +1734,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69">
         <v>12</v>
@@ -1739,7 +1747,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -1752,7 +1760,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71">
         <v>12</v>
@@ -1765,7 +1773,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72">
         <v>12</v>
@@ -1778,7 +1786,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73">
         <v>12</v>
@@ -1791,7 +1799,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74">
         <v>16</v>
@@ -1804,7 +1812,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75">
         <v>16</v>
@@ -1817,7 +1825,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76">
         <v>16</v>
@@ -1830,7 +1838,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -1843,7 +1851,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -1856,7 +1864,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -1869,7 +1877,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -1882,7 +1890,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -1895,7 +1903,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -1908,7 +1916,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -1921,7 +1929,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -1934,7 +1942,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -1947,7 +1955,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -1960,7 +1968,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -1973,7 +1981,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -1986,7 +1994,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -1999,7 +2007,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -2012,7 +2020,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -2025,7 +2033,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -2038,7 +2046,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -2051,7 +2059,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -2064,7 +2072,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -2077,7 +2085,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -2090,7 +2098,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -2103,7 +2111,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -2116,7 +2124,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -2129,7 +2137,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -2142,7 +2150,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B101">
         <v>6</v>
@@ -2155,7 +2163,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -2168,7 +2176,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -2181,7 +2189,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -2194,7 +2202,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -2207,7 +2215,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -2220,7 +2228,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -2233,7 +2241,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -2246,7 +2254,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -2259,7 +2267,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -2272,7 +2280,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B111">
         <v>8</v>
